--- a/web/material/template/gather_summary_template.xlsx
+++ b/web/material/template/gather_summary_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshine/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshine/Documents/Itellij/Selling/web/material/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="4280" windowWidth="27360" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>收款单号</t>
     <rPh sb="0" eb="1">
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>销售单号码</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,6 +528,12 @@
       </c>
       <c r="N1" t="s">
         <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/web/material/template/gather_summary_template.xlsx
+++ b/web/material/template/gather_summary_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshine/Documents/Itellij/Selling/web/material/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wxd/git/selling/web/material/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>收款单号</t>
     <rPh sb="0" eb="1">
@@ -119,16 +119,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>shou k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已退货款</t>
-    <rPh sb="0" eb="1">
-      <t>yi tui</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>huo k</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,13 +157,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -203,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -478,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -527,13 +517,10 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
